--- a/面试.xlsx
+++ b/面试.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="98">
   <si>
     <t>一、Java内存回收机制</t>
   </si>
@@ -437,10 +437,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>MemCache</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>设计模式</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -572,11 +568,79 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SpringMvc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Mybatis</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MemCached</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zookeeper实验</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Btree索引  失效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内存转储</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SpringMvc实验</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jar包分析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>equals hashcode vector</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订阅者模式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4gc，miligc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GC、性能调优、JVM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>memcached击穿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>full gc、minor gc、major gc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dubbo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zookeeper同步算法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多种线程锁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类的耦合度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>引用、继承</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>for 、for each</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -629,7 +693,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -651,6 +715,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -688,7 +770,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -719,8 +801,17 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1017,10 +1108,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="C4:E23"/>
+  <dimension ref="C4:E38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1044,7 +1135,7 @@
       <c r="C5" s="9">
         <v>1</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="10" t="s">
         <v>58</v>
       </c>
       <c r="E5" s="7"/>
@@ -1053,7 +1144,7 @@
       <c r="C6" s="9">
         <v>2</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="10" t="s">
         <v>60</v>
       </c>
       <c r="E6" s="7"/>
@@ -1062,7 +1153,7 @@
       <c r="C7" s="9">
         <v>3</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="11" t="s">
         <v>61</v>
       </c>
       <c r="E7" s="7"/>
@@ -1071,7 +1162,7 @@
       <c r="C8" s="9">
         <v>4</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="11" t="s">
         <v>62</v>
       </c>
       <c r="E8" s="7"/>
@@ -1080,8 +1171,8 @@
       <c r="C9" s="9">
         <v>5</v>
       </c>
-      <c r="D9" s="7" t="s">
-        <v>63</v>
+      <c r="D9" s="11" t="s">
+        <v>80</v>
       </c>
       <c r="E9" s="7"/>
     </row>
@@ -1089,19 +1180,19 @@
       <c r="C10" s="9">
         <v>6</v>
       </c>
-      <c r="D10" s="7" t="s">
-        <v>64</v>
+      <c r="D10" s="11" t="s">
+        <v>63</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="3:5">
       <c r="C11" s="9">
         <v>7</v>
       </c>
-      <c r="D11" s="7" t="s">
-        <v>65</v>
+      <c r="D11" s="11" t="s">
+        <v>64</v>
       </c>
       <c r="E11" s="7"/>
     </row>
@@ -1109,8 +1200,8 @@
       <c r="C12" s="9">
         <v>8</v>
       </c>
-      <c r="D12" s="7" t="s">
-        <v>66</v>
+      <c r="D12" s="11" t="s">
+        <v>65</v>
       </c>
       <c r="E12" s="7"/>
     </row>
@@ -1118,8 +1209,8 @@
       <c r="C13" s="9">
         <v>9</v>
       </c>
-      <c r="D13" s="7" t="s">
-        <v>67</v>
+      <c r="D13" s="11" t="s">
+        <v>66</v>
       </c>
       <c r="E13" s="7"/>
     </row>
@@ -1127,8 +1218,8 @@
       <c r="C14" s="9">
         <v>10</v>
       </c>
-      <c r="D14" s="7" t="s">
-        <v>68</v>
+      <c r="D14" s="11" t="s">
+        <v>67</v>
       </c>
       <c r="E14" s="7"/>
     </row>
@@ -1136,8 +1227,8 @@
       <c r="C15" s="9">
         <v>11</v>
       </c>
-      <c r="D15" s="7" t="s">
-        <v>69</v>
+      <c r="D15" s="10" t="s">
+        <v>68</v>
       </c>
       <c r="E15" s="7"/>
     </row>
@@ -1145,8 +1236,8 @@
       <c r="C16" s="9">
         <v>12</v>
       </c>
-      <c r="D16" s="7" t="s">
-        <v>70</v>
+      <c r="D16" s="10" t="s">
+        <v>69</v>
       </c>
       <c r="E16" s="7"/>
     </row>
@@ -1154,8 +1245,8 @@
       <c r="C17" s="9">
         <v>13</v>
       </c>
-      <c r="D17" s="7" t="s">
-        <v>71</v>
+      <c r="D17" s="10" t="s">
+        <v>70</v>
       </c>
       <c r="E17" s="7"/>
     </row>
@@ -1163,8 +1254,8 @@
       <c r="C18" s="9">
         <v>14</v>
       </c>
-      <c r="D18" s="7" t="s">
-        <v>72</v>
+      <c r="D18" s="10" t="s">
+        <v>71</v>
       </c>
       <c r="E18" s="7"/>
     </row>
@@ -1172,8 +1263,8 @@
       <c r="C19" s="9">
         <v>15</v>
       </c>
-      <c r="D19" s="7" t="s">
-        <v>74</v>
+      <c r="D19" s="10" t="s">
+        <v>73</v>
       </c>
       <c r="E19" s="7"/>
     </row>
@@ -1182,29 +1273,29 @@
         <v>16</v>
       </c>
       <c r="D20" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="E20" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="21" spans="3:5">
       <c r="C21" s="9">
         <v>17</v>
       </c>
-      <c r="D21" s="7" t="s">
+      <c r="D21" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="E21" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="22" spans="3:5">
       <c r="C22" s="9">
         <v>18</v>
       </c>
-      <c r="D22" s="7" t="s">
-        <v>80</v>
+      <c r="D22" s="13" t="s">
+        <v>84</v>
       </c>
       <c r="E22" s="7"/>
     </row>
@@ -1212,10 +1303,147 @@
       <c r="C23" s="9">
         <v>19</v>
       </c>
-      <c r="D23" s="7" t="s">
+      <c r="D23" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="E23" s="7"/>
+    </row>
+    <row r="24" spans="3:5">
+      <c r="C24" s="9">
+        <v>20</v>
+      </c>
+      <c r="D24" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="E23" s="7"/>
+      <c r="E24" s="7"/>
+    </row>
+    <row r="25" spans="3:5">
+      <c r="C25" s="9">
+        <v>21</v>
+      </c>
+      <c r="D25" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="E25" s="7"/>
+    </row>
+    <row r="26" spans="3:5">
+      <c r="C26" s="9">
+        <v>22</v>
+      </c>
+      <c r="D26" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="E26" s="7"/>
+    </row>
+    <row r="27" spans="3:5">
+      <c r="C27" s="9">
+        <v>23</v>
+      </c>
+      <c r="D27" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="28" spans="3:5">
+      <c r="C28" s="9">
+        <v>24</v>
+      </c>
+      <c r="D28" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="E28" s="7"/>
+    </row>
+    <row r="29" spans="3:5">
+      <c r="C29" s="9">
+        <v>25</v>
+      </c>
+      <c r="D29" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="E29" s="7"/>
+    </row>
+    <row r="30" spans="3:5">
+      <c r="C30" s="9">
+        <v>26</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="31" spans="3:5">
+      <c r="C31" s="9">
+        <v>27</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="E31" s="7"/>
+    </row>
+    <row r="32" spans="3:5">
+      <c r="C32" s="9">
+        <v>28</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="E32" s="7"/>
+    </row>
+    <row r="33" spans="3:5">
+      <c r="C33" s="9">
+        <v>29</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="E33" s="7"/>
+    </row>
+    <row r="34" spans="3:5">
+      <c r="C34" s="9">
+        <v>30</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="E34" s="7"/>
+    </row>
+    <row r="35" spans="3:5">
+      <c r="C35" s="9">
+        <v>31</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="36" spans="3:5">
+      <c r="C36" s="9">
+        <v>32</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="E36" s="7"/>
+    </row>
+    <row r="37" spans="3:5">
+      <c r="C37" s="9">
+        <v>33</v>
+      </c>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
+    </row>
+    <row r="38" spans="3:5">
+      <c r="C38" s="9">
+        <v>34</v>
+      </c>
+      <c r="D38" s="7"/>
+      <c r="E38" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1243,104 +1471,104 @@
       </c>
     </row>
     <row r="4" spans="2:13" ht="14.25" customHeight="1">
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="10"/>
-      <c r="M4" s="10"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="12"/>
+      <c r="M4" s="12"/>
     </row>
     <row r="5" spans="2:13" ht="14.25" customHeight="1">
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10"/>
-      <c r="L5" s="10"/>
-      <c r="M5" s="10"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="12"/>
+      <c r="M5" s="12"/>
     </row>
     <row r="6" spans="2:13" ht="14.25" customHeight="1">
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10"/>
-      <c r="L6" s="10"/>
-      <c r="M6" s="10"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
     </row>
     <row r="7" spans="2:13" ht="14.25" customHeight="1">
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10"/>
-      <c r="L7" s="10"/>
-      <c r="M7" s="10"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="12"/>
     </row>
     <row r="8" spans="2:13" ht="14.25" customHeight="1">
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="10"/>
-      <c r="L8" s="10"/>
-      <c r="M8" s="10"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="12"/>
     </row>
     <row r="9" spans="2:13" ht="14.25" customHeight="1">
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="10"/>
-      <c r="K9" s="10"/>
-      <c r="L9" s="10"/>
-      <c r="M9" s="10"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="12"/>
     </row>
     <row r="10" spans="2:13" ht="14.25" customHeight="1">
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="10"/>
-      <c r="L10" s="10"/>
-      <c r="M10" s="10"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="12"/>
+      <c r="M10" s="12"/>
     </row>
     <row r="11" spans="2:13">
       <c r="B11" s="4"/>
@@ -1351,104 +1579,104 @@
       </c>
     </row>
     <row r="13" spans="2:13" ht="14.25" customHeight="1">
-      <c r="B13" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="10"/>
-      <c r="K13" s="10"/>
-      <c r="L13" s="10"/>
-      <c r="M13" s="10"/>
+      <c r="B13" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="12"/>
+      <c r="L13" s="12"/>
+      <c r="M13" s="12"/>
     </row>
     <row r="14" spans="2:13" ht="14.25" customHeight="1">
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="10"/>
-      <c r="K14" s="10"/>
-      <c r="L14" s="10"/>
-      <c r="M14" s="10"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="12"/>
+      <c r="K14" s="12"/>
+      <c r="L14" s="12"/>
+      <c r="M14" s="12"/>
     </row>
     <row r="15" spans="2:13" ht="14.25" customHeight="1">
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="10"/>
-      <c r="K15" s="10"/>
-      <c r="L15" s="10"/>
-      <c r="M15" s="10"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="12"/>
+      <c r="L15" s="12"/>
+      <c r="M15" s="12"/>
     </row>
     <row r="16" spans="2:13" ht="14.25" customHeight="1">
-      <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="10"/>
-      <c r="K16" s="10"/>
-      <c r="L16" s="10"/>
-      <c r="M16" s="10"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="12"/>
+      <c r="M16" s="12"/>
     </row>
     <row r="17" spans="2:13" ht="14.25" customHeight="1">
-      <c r="B17" s="10"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="10"/>
-      <c r="J17" s="10"/>
-      <c r="K17" s="10"/>
-      <c r="L17" s="10"/>
-      <c r="M17" s="10"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="12"/>
+      <c r="L17" s="12"/>
+      <c r="M17" s="12"/>
     </row>
     <row r="18" spans="2:13" ht="14.25" customHeight="1">
-      <c r="B18" s="10"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="10"/>
-      <c r="J18" s="10"/>
-      <c r="K18" s="10"/>
-      <c r="L18" s="10"/>
-      <c r="M18" s="10"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="12"/>
+      <c r="K18" s="12"/>
+      <c r="L18" s="12"/>
+      <c r="M18" s="12"/>
     </row>
     <row r="19" spans="2:13" ht="14.25" customHeight="1">
-      <c r="B19" s="10"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10"/>
-      <c r="I19" s="10"/>
-      <c r="J19" s="10"/>
-      <c r="K19" s="10"/>
-      <c r="L19" s="10"/>
-      <c r="M19" s="10"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="12"/>
+      <c r="K19" s="12"/>
+      <c r="L19" s="12"/>
+      <c r="M19" s="12"/>
     </row>
     <row r="20" spans="2:13" ht="14.25">
       <c r="B20" s="3" t="s">
@@ -1456,34 +1684,34 @@
       </c>
     </row>
     <row r="21" spans="2:13" ht="14.25" customHeight="1">
-      <c r="B21" s="10" t="s">
+      <c r="B21" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="10"/>
-      <c r="I21" s="10"/>
-      <c r="J21" s="10"/>
-      <c r="K21" s="10"/>
-      <c r="L21" s="10"/>
-      <c r="M21" s="10"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="12"/>
+      <c r="K21" s="12"/>
+      <c r="L21" s="12"/>
+      <c r="M21" s="12"/>
     </row>
     <row r="22" spans="2:13" ht="14.25" customHeight="1">
-      <c r="B22" s="10"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="10"/>
-      <c r="I22" s="10"/>
-      <c r="J22" s="10"/>
-      <c r="K22" s="10"/>
-      <c r="L22" s="10"/>
-      <c r="M22" s="10"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="12"/>
+      <c r="J22" s="12"/>
+      <c r="K22" s="12"/>
+      <c r="L22" s="12"/>
+      <c r="M22" s="12"/>
     </row>
     <row r="23" spans="2:13" ht="14.25">
       <c r="B23" s="3"/>
